--- a/test_case_data/bmc/bmc_login_20210513.xlsx
+++ b/test_case_data/bmc/bmc_login_20210513.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="153">
   <si>
     <t>邓茂生</t>
   </si>
@@ -267,6 +267,240 @@
   </si>
   <si>
     <t>{"success":false,"code":1005,"msg":"登录失败"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活</t>
+  </si>
+  <si>
+    <t>身份证校验</t>
+  </si>
+  <si>
+    <t>不传姓名，验证不通过</t>
+  </si>
+  <si>
+    <t>/user/credit/idAuth</t>
+  </si>
+  <si>
+    <t>有驾驶证非贵阳用户激活</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>验证不通过</t>
+  </si>
+  <si>
+    <t>{"success":false,"code":1005,"msg":"姓名不能为空"}</t>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/4510</t>
+  </si>
+  <si>
+    <t>liaohui</t>
+  </si>
+  <si>
+    <t>http://testbmcapp.hikcreate.com</t>
+  </si>
+  <si>
+    <t>不传身份证，验证不通过</t>
+  </si>
+  <si>
+    <t>{"realName":"成都测试","idCard":"","bNetTag":"trf_mgt","bCityCode":"520100"}</t>
+  </si>
+  <si>
+    <t>{"success":false,"code":1005,"msg":"身份证号码不能为空"}</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>不传城市编码，验证通过</t>
+  </si>
+  <si>
+    <t>{"realName":"成都测试","idCard":"510681199407254118","bNetTag":"trf_mgt","bCityCode":""}</t>
+  </si>
+  <si>
+    <t>{"success":false,"code":1030001,"msg":"您当前暂贵阳市驾驶证，法完成信用激活","errorMsg":"您当前暂贵阳市驾驶证，法完成信用激活"}</t>
+  </si>
+  <si>
+    <t>不传网络编码，验证通过</t>
+  </si>
+  <si>
+    <t>{"realName":"成都测试","idCard":"510681199407254118","bNetTag":"","bCityCode":"520100"}</t>
+  </si>
+  <si>
+    <t>正确上传参数，验证不通过</t>
+  </si>
+  <si>
+    <t>有驾驶证贵阳用户激活</t>
+  </si>
+  <si>
+    <t>{"realName":"","idCard":"520102199306115996","bNetTag":"trf_mgt","bCityCode":"520100"}</t>
+  </si>
+  <si>
+    <t>{"realName":"15996","idCard":"520102199306115996","bNetTag":"trf_mgt","bCityCode":""}</t>
+  </si>
+  <si>
+    <t>验证通过</t>
+  </si>
+  <si>
+    <t>{"success":true,"code":1000,"msg":"操作成功","errorMsg":"操作成功","data":{}}</t>
+  </si>
+  <si>
+    <t>{"realName":"15996","idCard":"520102199306115996","bNetTag":"","bCityCode":"520100"}</t>
+  </si>
+  <si>
+    <t>正确上传参数，验证通过</t>
+  </si>
+  <si>
+    <t>{"realName":"15996","idCard":"520102199306115996","bNetTag":"trf_mgt","bCityCode":"520100"}</t>
+  </si>
+  <si>
+    <t>发送短信验证码</t>
+  </si>
+  <si>
+    <t>用短信验证码激活</t>
+  </si>
+  <si>
+    <t>/user/credit/verifyCode/detail</t>
+  </si>
+  <si>
+    <t>成功发送验证码</t>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/4942</t>
+  </si>
+  <si>
+    <t>激活信用</t>
+  </si>
+  <si>
+    <t>使用错误的验证码，激活失败</t>
+  </si>
+  <si>
+    <t>/user/credit/active</t>
+  </si>
+  <si>
+    <t>{"verifyCode":"000000"}</t>
+  </si>
+  <si>
+    <t>激活失败</t>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/4513</t>
+  </si>
+  <si>
+    <t>不传验证码，激活失败</t>
+  </si>
+  <si>
+    <t>{"verifyCode":""}</t>
+  </si>
+  <si>
+    <t>{"success":false,"code":1005,"msg":"验证码错误"}</t>
+  </si>
+  <si>
+    <t>使用过期的验证码，激活失败</t>
+  </si>
+  <si>
+    <t>{"verifyCode":"516029"}</t>
+  </si>
+  <si>
+    <t>使用正确的未过期验证码</t>
+  </si>
+  <si>
+    <t>{"verifyCode":"987104"}</t>
+  </si>
+  <si>
+    <t>激活成功</t>
+  </si>
+  <si>
+    <t>{"success":false,"code":1005,"msg":"登录失败，账号不能为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1005,"msg":"姓名不能为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/credit/idAuth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/user/login/keyboardPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"realName":"","idCard":"510681199407254118","bNetTag":"trf_mgt","bCityCode":"520100"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"realName":"成都测试","idCard":"510681199407254118","bNetTag":"trf_mgt","bCityCode":"520100"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"realName":"15996","idCard":"","bNetTag":"trf_mgt","bCityCode":"520100"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active002</t>
+  </si>
+  <si>
+    <t>Active003</t>
+  </si>
+  <si>
+    <t>Active004</t>
+  </si>
+  <si>
+    <t>Active005</t>
+  </si>
+  <si>
+    <t>Active006</t>
+  </si>
+  <si>
+    <t>Active007</t>
+  </si>
+  <si>
+    <t>Active008</t>
+  </si>
+  <si>
+    <t>Active009</t>
+  </si>
+  <si>
+    <t>Active010</t>
+  </si>
+  <si>
+    <t>Active011</t>
+  </si>
+  <si>
+    <t>Active012</t>
+  </si>
+  <si>
+    <t>Active013</t>
+  </si>
+  <si>
+    <t>Active014</t>
+  </si>
+  <si>
+    <t>Active015</t>
+  </si>
+  <si>
+    <t>{"success":false,"code":1010007,"msg":"验证码错误","errorMsg":"验证码错误"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1010007,"msg":"验证码已失效，请重新获取","errorMsg":"验证码已失效，请重新获取"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"code":1010007,"msg":"操作成功","errorMsg":"操作成功"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"code":1010007,"msg":"操作成功","errorMsg":"操作成功","data":{"phone":"159****0000"}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +508,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +577,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9.75"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -373,7 +613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -407,6 +647,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -689,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1180,7 +1426,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="2" t="s">
@@ -1289,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="5"/>
@@ -1300,9 +1546,709 @@
       <c r="R13" s="3"/>
       <c r="S13" s="2"/>
     </row>
+    <row r="14" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="R14" r:id="rId1"/>
+    <hyperlink ref="R15" r:id="rId2"/>
+    <hyperlink ref="R16" r:id="rId3"/>
+    <hyperlink ref="R17" r:id="rId4"/>
+    <hyperlink ref="R18" r:id="rId5"/>
+    <hyperlink ref="R19" r:id="rId6"/>
+    <hyperlink ref="R20" r:id="rId7"/>
+    <hyperlink ref="R21" r:id="rId8"/>
+    <hyperlink ref="R22" r:id="rId9"/>
+    <hyperlink ref="R23" r:id="rId10"/>
+    <hyperlink ref="R24" r:id="rId11"/>
+    <hyperlink ref="R25" r:id="rId12"/>
+    <hyperlink ref="R26" r:id="rId13"/>
+    <hyperlink ref="R27" r:id="rId14"/>
+    <hyperlink ref="R28" r:id="rId15" tooltip="http://testbmcapp.hikcreate.com"/>
+    <hyperlink ref="O24" r:id="rId16" tooltip="http://yapi.hikcreate.com/project/31/interface/api/4942"/>
+    <hyperlink ref="O23" r:id="rId17" tooltip="http://yapi.hikcreate.com/project/31/interface/api/4510"/>
+    <hyperlink ref="O22" r:id="rId18" tooltip="http://yapi.hikcreate.com/project/31/interface/api/4510"/>
+    <hyperlink ref="O21" r:id="rId19" tooltip="http://yapi.hikcreate.com/project/31/interface/api/4510"/>
+    <hyperlink ref="O20" r:id="rId20" tooltip="http://yapi.hikcreate.com/project/31/interface/api/4510"/>
+    <hyperlink ref="O18" r:id="rId21" tooltip="http://yapi.hikcreate.com/project/31/interface/api/4510"/>
+    <hyperlink ref="O17" r:id="rId22" tooltip="http://yapi.hikcreate.com/project/31/interface/api/4510"/>
+    <hyperlink ref="O16" r:id="rId23" tooltip="http://yapi.hikcreate.com/project/31/interface/api/4510"/>
+    <hyperlink ref="O15" r:id="rId24" tooltip="http://yapi.hikcreate.com/project/31/interface/api/4510"/>
+    <hyperlink ref="O14" r:id="rId25" tooltip="http://yapi.hikcreate.com/project/31/interface/api/4510"/>
+    <hyperlink ref="O19" r:id="rId26" tooltip="http://yapi.hikcreate.com/project/31/interface/api/4510"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId27"/>
 </worksheet>
 </file>